--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H2">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>12.97266190776566</v>
+        <v>0.06568139427833333</v>
       </c>
       <c r="R2">
-        <v>116.753957169891</v>
+        <v>0.591132548505</v>
       </c>
       <c r="S2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="T2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H3">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>2055.008624680247</v>
+        <v>6.583579457451111</v>
       </c>
       <c r="R3">
-        <v>18495.07762212222</v>
+        <v>59.25221511706</v>
       </c>
       <c r="S3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="T3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H4">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>432.607177715585</v>
+        <v>1.385932737288333</v>
       </c>
       <c r="R4">
-        <v>3893.464599440265</v>
+        <v>12.473394635595</v>
       </c>
       <c r="S4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="T4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
     </row>
   </sheetData>
